--- a/report/time-size.xlsx
+++ b/report/time-size.xlsx
@@ -14,11 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>insertion</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>selection</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -36,7 +32,19 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>insertion</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>size</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位:微秒</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>average</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -387,7 +395,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -502,6 +510,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -631,8 +719,35 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -977,232 +1092,642 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>5</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>8297</v>
       </c>
       <c r="C2">
-        <v>861</v>
+        <v>26607</v>
       </c>
       <c r="D2">
-        <v>18</v>
+        <v>113953</v>
       </c>
       <c r="E2">
-        <v>90</v>
+        <v>718</v>
       </c>
       <c r="F2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+        <v>492</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>7149</v>
       </c>
       <c r="C3">
-        <v>1052</v>
+        <v>19721</v>
       </c>
       <c r="D3">
-        <v>35</v>
+        <v>121987</v>
       </c>
       <c r="E3">
-        <v>201</v>
+        <v>707</v>
       </c>
       <c r="F3">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>3000</v>
+        <v>30000</v>
       </c>
       <c r="B4">
-        <v>14</v>
+        <v>6548</v>
       </c>
       <c r="C4">
-        <v>1279</v>
+        <v>26587</v>
       </c>
       <c r="D4">
-        <v>59</v>
+        <v>113938</v>
       </c>
       <c r="E4">
-        <v>330</v>
+        <v>707</v>
       </c>
       <c r="F4">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>4000</v>
+        <v>40000</v>
       </c>
       <c r="B5">
-        <v>20</v>
+        <v>6520</v>
       </c>
       <c r="C5">
-        <v>1339</v>
+        <v>26541</v>
       </c>
       <c r="D5">
-        <v>80</v>
+        <v>114027</v>
       </c>
       <c r="E5">
-        <v>402</v>
+        <v>708</v>
       </c>
       <c r="F5">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>5000</v>
+        <v>50000</v>
       </c>
       <c r="B6">
-        <v>26</v>
+        <v>6527</v>
       </c>
       <c r="C6">
-        <v>3252</v>
+        <v>26561</v>
       </c>
       <c r="D6">
-        <v>100</v>
+        <v>114110</v>
       </c>
       <c r="E6">
-        <v>447</v>
+        <v>706</v>
       </c>
       <c r="F6">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>6000</v>
-      </c>
-      <c r="B7">
-        <v>28</v>
-      </c>
-      <c r="C7">
-        <v>3701</v>
-      </c>
-      <c r="D7">
-        <v>100</v>
-      </c>
-      <c r="E7">
-        <v>430</v>
-      </c>
-      <c r="F7">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="B8">
-        <v>33</v>
+        <v>28131</v>
       </c>
       <c r="C8">
-        <v>5703</v>
+        <v>105130</v>
       </c>
       <c r="D8">
-        <v>120</v>
+        <v>518368</v>
       </c>
       <c r="E8">
-        <v>396</v>
+        <v>1328</v>
       </c>
       <c r="F8">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="B9">
-        <v>32</v>
+        <v>26225</v>
       </c>
       <c r="C9">
-        <v>6357</v>
+        <v>73432</v>
       </c>
       <c r="D9">
-        <v>135</v>
+        <v>426489</v>
       </c>
       <c r="E9">
-        <v>443</v>
+        <v>1309</v>
       </c>
       <c r="F9">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10">
-        <v>9000</v>
+        <v>30000</v>
       </c>
       <c r="B10">
-        <v>40</v>
+        <v>26230</v>
       </c>
       <c r="C10">
-        <v>7393</v>
+        <v>73425</v>
       </c>
       <c r="D10">
-        <v>144</v>
+        <v>426404</v>
       </c>
       <c r="E10">
-        <v>509</v>
+        <v>1309</v>
       </c>
       <c r="F10">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11">
+        <v>40000</v>
+      </c>
+      <c r="B11">
+        <v>26222</v>
+      </c>
+      <c r="C11">
+        <v>73440</v>
+      </c>
+      <c r="D11">
+        <v>426552</v>
+      </c>
+      <c r="E11">
+        <v>1309</v>
+      </c>
+      <c r="F11">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>50000</v>
+      </c>
+      <c r="B12">
+        <v>26222</v>
+      </c>
+      <c r="C12">
+        <v>73419</v>
+      </c>
+      <c r="D12">
+        <v>433947</v>
+      </c>
+      <c r="E12">
+        <v>1309</v>
+      </c>
+      <c r="F12">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14">
         <v>10000</v>
       </c>
-      <c r="B11">
-        <v>40</v>
-      </c>
-      <c r="C11">
-        <v>9542</v>
-      </c>
-      <c r="D11">
-        <v>138</v>
-      </c>
-      <c r="E11">
-        <v>478</v>
-      </c>
-      <c r="F11">
-        <v>169</v>
+      <c r="B14">
+        <v>55082</v>
+      </c>
+      <c r="C14">
+        <v>235120</v>
+      </c>
+      <c r="D14">
+        <v>1206363</v>
+      </c>
+      <c r="E14">
+        <v>2052</v>
+      </c>
+      <c r="F14">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>20000</v>
+      </c>
+      <c r="B15">
+        <v>58529</v>
+      </c>
+      <c r="C15">
+        <v>165645</v>
+      </c>
+      <c r="D15">
+        <v>988847</v>
+      </c>
+      <c r="E15">
+        <v>2039</v>
+      </c>
+      <c r="F15">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>30000</v>
+      </c>
+      <c r="B16">
+        <v>58402</v>
+      </c>
+      <c r="C16">
+        <v>165611</v>
+      </c>
+      <c r="D16">
+        <v>989597</v>
+      </c>
+      <c r="E16">
+        <v>2038</v>
+      </c>
+      <c r="F16">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>40000</v>
+      </c>
+      <c r="B17">
+        <v>58405</v>
+      </c>
+      <c r="C17">
+        <v>166598</v>
+      </c>
+      <c r="D17">
+        <v>988375</v>
+      </c>
+      <c r="E17">
+        <v>2033</v>
+      </c>
+      <c r="F17">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>50000</v>
+      </c>
+      <c r="B18">
+        <v>58012</v>
+      </c>
+      <c r="C18">
+        <v>164873</v>
+      </c>
+      <c r="D18">
+        <v>982734</v>
+      </c>
+      <c r="E18">
+        <v>2034</v>
+      </c>
+      <c r="F18">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>10000</v>
+      </c>
+      <c r="B20">
+        <v>96467</v>
+      </c>
+      <c r="C20">
+        <v>417463</v>
+      </c>
+      <c r="D20">
+        <v>2184987</v>
+      </c>
+      <c r="E20">
+        <v>2773</v>
+      </c>
+      <c r="F20">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>20000</v>
+      </c>
+      <c r="B21">
+        <v>103784</v>
+      </c>
+      <c r="C21">
+        <v>292015</v>
+      </c>
+      <c r="D21">
+        <v>1809232</v>
+      </c>
+      <c r="E21">
+        <v>2754</v>
+      </c>
+      <c r="F21">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>30000</v>
+      </c>
+      <c r="B22">
+        <v>103769</v>
+      </c>
+      <c r="C22">
+        <v>302288</v>
+      </c>
+      <c r="D22">
+        <v>1769642</v>
+      </c>
+      <c r="E22">
+        <v>2755</v>
+      </c>
+      <c r="F22">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>40000</v>
+      </c>
+      <c r="B23">
+        <v>103806</v>
+      </c>
+      <c r="C23">
+        <v>292756</v>
+      </c>
+      <c r="D23">
+        <v>1770005</v>
+      </c>
+      <c r="E23">
+        <v>2749</v>
+      </c>
+      <c r="F23">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>50000</v>
+      </c>
+      <c r="B24">
+        <v>103690</v>
+      </c>
+      <c r="C24">
+        <v>292612</v>
+      </c>
+      <c r="D24">
+        <v>1771423</v>
+      </c>
+      <c r="E24">
+        <v>2758</v>
+      </c>
+      <c r="F24">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>10000</v>
+      </c>
+      <c r="B26">
+        <v>149798</v>
+      </c>
+      <c r="C26">
+        <v>651318</v>
+      </c>
+      <c r="D26">
+        <v>3480731</v>
+      </c>
+      <c r="E26">
+        <v>3565</v>
+      </c>
+      <c r="F26">
+        <v>3058</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>20000</v>
+      </c>
+      <c r="B27">
+        <v>164093</v>
+      </c>
+      <c r="C27">
+        <v>455949</v>
+      </c>
+      <c r="D27">
+        <v>2788247</v>
+      </c>
+      <c r="E27">
+        <v>3539</v>
+      </c>
+      <c r="F27">
+        <v>3046</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>30000</v>
+      </c>
+      <c r="B28">
+        <v>162553</v>
+      </c>
+      <c r="C28">
+        <v>456150</v>
+      </c>
+      <c r="D28">
+        <v>2790159</v>
+      </c>
+      <c r="E28">
+        <v>3625</v>
+      </c>
+      <c r="F28">
+        <v>3042</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>40000</v>
+      </c>
+      <c r="B29">
+        <v>162652</v>
+      </c>
+      <c r="C29">
+        <v>455919</v>
+      </c>
+      <c r="D29">
+        <v>2788969</v>
+      </c>
+      <c r="E29">
+        <v>3545</v>
+      </c>
+      <c r="F29">
+        <v>3041</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>50000</v>
+      </c>
+      <c r="B30">
+        <v>162508</v>
+      </c>
+      <c r="C30">
+        <v>456627</v>
+      </c>
+      <c r="D30">
+        <v>2807876</v>
+      </c>
+      <c r="E30">
+        <v>3561</v>
+      </c>
+      <c r="F30">
+        <v>3052</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37" s="1">
+        <v>10000</v>
+      </c>
+      <c r="B37" s="2">
+        <v>7008</v>
+      </c>
+      <c r="C37" s="2">
+        <v>25203</v>
+      </c>
+      <c r="D37" s="2">
+        <v>115603</v>
+      </c>
+      <c r="E37" s="2">
+        <v>709</v>
+      </c>
+      <c r="F37" s="3">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38" s="4">
+        <v>20000</v>
+      </c>
+      <c r="B38" s="5">
+        <v>26606</v>
+      </c>
+      <c r="C38" s="5">
+        <v>79769</v>
+      </c>
+      <c r="D38" s="5">
+        <v>446352</v>
+      </c>
+      <c r="E38" s="5">
+        <v>1312</v>
+      </c>
+      <c r="F38" s="6">
+        <v>1108</v>
+      </c>
+      <c r="H38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39" s="4">
+        <v>30000</v>
+      </c>
+      <c r="B39" s="5">
+        <v>57686</v>
+      </c>
+      <c r="C39" s="5">
+        <v>179569</v>
+      </c>
+      <c r="D39" s="5">
+        <v>1031183</v>
+      </c>
+      <c r="E39" s="5">
+        <v>2039</v>
+      </c>
+      <c r="F39" s="6">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A40" s="4">
+        <v>40000</v>
+      </c>
+      <c r="B40" s="5">
+        <v>102303</v>
+      </c>
+      <c r="C40" s="5">
+        <v>319426</v>
+      </c>
+      <c r="D40" s="5">
+        <v>1861057</v>
+      </c>
+      <c r="E40" s="5">
+        <v>2757</v>
+      </c>
+      <c r="F40" s="6">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A41" s="7">
+        <v>50000</v>
+      </c>
+      <c r="B41" s="8">
+        <v>160320</v>
+      </c>
+      <c r="C41" s="8">
+        <v>495192</v>
+      </c>
+      <c r="D41" s="8">
+        <v>2931196</v>
+      </c>
+      <c r="E41" s="8">
+        <v>3567</v>
+      </c>
+      <c r="F41" s="9">
+        <v>3047</v>
       </c>
     </row>
   </sheetData>

--- a/report/time-size.xlsx
+++ b/report/time-size.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>selection</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -36,15 +36,15 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>size</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>单位:微秒</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>average</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>size</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -719,36 +719,42 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1094,8 +1100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1105,545 +1111,557 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="10">
+        <v>10000</v>
+      </c>
+      <c r="B2" s="5">
+        <v>8297</v>
+      </c>
+      <c r="C2" s="5">
+        <v>26607</v>
+      </c>
+      <c r="D2" s="5">
+        <v>113953</v>
+      </c>
+      <c r="E2" s="5">
+        <v>718</v>
+      </c>
+      <c r="F2" s="6">
+        <v>492</v>
+      </c>
+      <c r="H2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="10"/>
+      <c r="B3" s="5">
+        <v>7149</v>
+      </c>
+      <c r="C3" s="5">
+        <v>19721</v>
+      </c>
+      <c r="D3" s="5">
+        <v>121987</v>
+      </c>
+      <c r="E3" s="5">
+        <v>707</v>
+      </c>
+      <c r="F3" s="6">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="10"/>
+      <c r="B4" s="5">
+        <v>6548</v>
+      </c>
+      <c r="C4" s="5">
+        <v>26587</v>
+      </c>
+      <c r="D4" s="5">
+        <v>113938</v>
+      </c>
+      <c r="E4" s="5">
+        <v>707</v>
+      </c>
+      <c r="F4" s="6">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="10"/>
+      <c r="B5" s="5">
+        <v>6520</v>
+      </c>
+      <c r="C5" s="5">
+        <v>26541</v>
+      </c>
+      <c r="D5" s="5">
+        <v>114027</v>
+      </c>
+      <c r="E5" s="5">
+        <v>708</v>
+      </c>
+      <c r="F5" s="6">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="10"/>
+      <c r="B6" s="5">
+        <v>6527</v>
+      </c>
+      <c r="C6" s="5">
+        <v>26561</v>
+      </c>
+      <c r="D6" s="5">
+        <v>114110</v>
+      </c>
+      <c r="E6" s="5">
+        <v>706</v>
+      </c>
+      <c r="F6" s="6">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="10">
+        <v>20000</v>
+      </c>
+      <c r="B8" s="5">
+        <v>28131</v>
+      </c>
+      <c r="C8" s="5">
+        <v>105130</v>
+      </c>
+      <c r="D8" s="5">
+        <v>518368</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1328</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="10"/>
+      <c r="B9" s="5">
+        <v>26225</v>
+      </c>
+      <c r="C9" s="5">
+        <v>73432</v>
+      </c>
+      <c r="D9" s="5">
+        <v>426489</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1309</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="10"/>
+      <c r="B10" s="5">
+        <v>26230</v>
+      </c>
+      <c r="C10" s="5">
+        <v>73425</v>
+      </c>
+      <c r="D10" s="5">
+        <v>426404</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1309</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="10"/>
+      <c r="B11" s="5">
+        <v>26222</v>
+      </c>
+      <c r="C11" s="5">
+        <v>73440</v>
+      </c>
+      <c r="D11" s="5">
+        <v>426552</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1309</v>
+      </c>
+      <c r="F11" s="6">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="10"/>
+      <c r="B12" s="5">
+        <v>26222</v>
+      </c>
+      <c r="C12" s="5">
+        <v>73419</v>
+      </c>
+      <c r="D12" s="5">
+        <v>433947</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1309</v>
+      </c>
+      <c r="F12" s="6">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="10">
+        <v>30000</v>
+      </c>
+      <c r="B14" s="5">
+        <v>55082</v>
+      </c>
+      <c r="C14" s="5">
+        <v>235120</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1206363</v>
+      </c>
+      <c r="E14" s="5">
+        <v>2052</v>
+      </c>
+      <c r="F14" s="6">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="10"/>
+      <c r="B15" s="5">
+        <v>58529</v>
+      </c>
+      <c r="C15" s="5">
+        <v>165645</v>
+      </c>
+      <c r="D15" s="5">
+        <v>988847</v>
+      </c>
+      <c r="E15" s="5">
+        <v>2039</v>
+      </c>
+      <c r="F15" s="6">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="10"/>
+      <c r="B16" s="5">
+        <v>58402</v>
+      </c>
+      <c r="C16" s="5">
+        <v>165611</v>
+      </c>
+      <c r="D16" s="5">
+        <v>989597</v>
+      </c>
+      <c r="E16" s="5">
+        <v>2038</v>
+      </c>
+      <c r="F16" s="6">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="10"/>
+      <c r="B17" s="5">
+        <v>58405</v>
+      </c>
+      <c r="C17" s="5">
+        <v>166598</v>
+      </c>
+      <c r="D17" s="5">
+        <v>988375</v>
+      </c>
+      <c r="E17" s="5">
+        <v>2033</v>
+      </c>
+      <c r="F17" s="6">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="10"/>
+      <c r="B18" s="5">
+        <v>58012</v>
+      </c>
+      <c r="C18" s="5">
+        <v>164873</v>
+      </c>
+      <c r="D18" s="5">
+        <v>982734</v>
+      </c>
+      <c r="E18" s="5">
+        <v>2034</v>
+      </c>
+      <c r="F18" s="6">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="10">
+        <v>40000</v>
+      </c>
+      <c r="B20" s="5">
+        <v>96467</v>
+      </c>
+      <c r="C20" s="5">
+        <v>417463</v>
+      </c>
+      <c r="D20" s="5">
+        <v>2184987</v>
+      </c>
+      <c r="E20" s="5">
+        <v>2773</v>
+      </c>
+      <c r="F20" s="6">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="10"/>
+      <c r="B21" s="5">
+        <v>103784</v>
+      </c>
+      <c r="C21" s="5">
+        <v>292015</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1809232</v>
+      </c>
+      <c r="E21" s="5">
+        <v>2754</v>
+      </c>
+      <c r="F21" s="6">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="10"/>
+      <c r="B22" s="5">
+        <v>103769</v>
+      </c>
+      <c r="C22" s="5">
+        <v>302288</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1769642</v>
+      </c>
+      <c r="E22" s="5">
+        <v>2755</v>
+      </c>
+      <c r="F22" s="6">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="10"/>
+      <c r="B23" s="5">
+        <v>103806</v>
+      </c>
+      <c r="C23" s="5">
+        <v>292756</v>
+      </c>
+      <c r="D23" s="5">
+        <v>1770005</v>
+      </c>
+      <c r="E23" s="5">
+        <v>2749</v>
+      </c>
+      <c r="F23" s="6">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="10"/>
+      <c r="B24" s="5">
+        <v>103690</v>
+      </c>
+      <c r="C24" s="5">
+        <v>292612</v>
+      </c>
+      <c r="D24" s="5">
+        <v>1771423</v>
+      </c>
+      <c r="E24" s="5">
+        <v>2758</v>
+      </c>
+      <c r="F24" s="6">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="10">
+        <v>50000</v>
+      </c>
+      <c r="B26" s="5">
+        <v>149798</v>
+      </c>
+      <c r="C26" s="5">
+        <v>651318</v>
+      </c>
+      <c r="D26" s="5">
+        <v>3480731</v>
+      </c>
+      <c r="E26" s="5">
+        <v>3565</v>
+      </c>
+      <c r="F26" s="6">
+        <v>3058</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="10"/>
+      <c r="B27" s="5">
+        <v>164093</v>
+      </c>
+      <c r="C27" s="5">
+        <v>455949</v>
+      </c>
+      <c r="D27" s="5">
+        <v>2788247</v>
+      </c>
+      <c r="E27" s="5">
+        <v>3539</v>
+      </c>
+      <c r="F27" s="6">
+        <v>3046</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="10"/>
+      <c r="B28" s="5">
+        <v>162553</v>
+      </c>
+      <c r="C28" s="5">
+        <v>456150</v>
+      </c>
+      <c r="D28" s="5">
+        <v>2790159</v>
+      </c>
+      <c r="E28" s="5">
+        <v>3625</v>
+      </c>
+      <c r="F28" s="6">
+        <v>3042</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="10"/>
+      <c r="B29" s="5">
+        <v>162652</v>
+      </c>
+      <c r="C29" s="5">
+        <v>455919</v>
+      </c>
+      <c r="D29" s="5">
+        <v>2788969</v>
+      </c>
+      <c r="E29" s="5">
+        <v>3545</v>
+      </c>
+      <c r="F29" s="6">
+        <v>3041</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" s="11"/>
+      <c r="B30" s="8">
+        <v>162508</v>
+      </c>
+      <c r="C30" s="8">
+        <v>456627</v>
+      </c>
+      <c r="D30" s="8">
+        <v>2807876</v>
+      </c>
+      <c r="E30" s="8">
+        <v>3561</v>
+      </c>
+      <c r="F30" s="9">
+        <v>3052</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C36" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D36" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E36" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F36" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37" s="4">
         <v>10000</v>
       </c>
-      <c r="B2">
-        <v>8297</v>
-      </c>
-      <c r="C2">
-        <v>26607</v>
-      </c>
-      <c r="D2">
-        <v>113953</v>
-      </c>
-      <c r="E2">
-        <v>718</v>
-      </c>
-      <c r="F2">
-        <v>492</v>
-      </c>
-      <c r="H2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>20000</v>
-      </c>
-      <c r="B3">
-        <v>7149</v>
-      </c>
-      <c r="C3">
-        <v>19721</v>
-      </c>
-      <c r="D3">
-        <v>121987</v>
-      </c>
-      <c r="E3">
-        <v>707</v>
-      </c>
-      <c r="F3">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>30000</v>
-      </c>
-      <c r="B4">
-        <v>6548</v>
-      </c>
-      <c r="C4">
-        <v>26587</v>
-      </c>
-      <c r="D4">
-        <v>113938</v>
-      </c>
-      <c r="E4">
-        <v>707</v>
-      </c>
-      <c r="F4">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>40000</v>
-      </c>
-      <c r="B5">
-        <v>6520</v>
-      </c>
-      <c r="C5">
-        <v>26541</v>
-      </c>
-      <c r="D5">
-        <v>114027</v>
-      </c>
-      <c r="E5">
-        <v>708</v>
-      </c>
-      <c r="F5">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>50000</v>
-      </c>
-      <c r="B6">
-        <v>6527</v>
-      </c>
-      <c r="C6">
-        <v>26561</v>
-      </c>
-      <c r="D6">
-        <v>114110</v>
-      </c>
-      <c r="E6">
-        <v>706</v>
-      </c>
-      <c r="F6">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>10000</v>
-      </c>
-      <c r="B8">
-        <v>28131</v>
-      </c>
-      <c r="C8">
-        <v>105130</v>
-      </c>
-      <c r="D8">
-        <v>518368</v>
-      </c>
-      <c r="E8">
-        <v>1328</v>
-      </c>
-      <c r="F8">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>20000</v>
-      </c>
-      <c r="B9">
-        <v>26225</v>
-      </c>
-      <c r="C9">
-        <v>73432</v>
-      </c>
-      <c r="D9">
-        <v>426489</v>
-      </c>
-      <c r="E9">
-        <v>1309</v>
-      </c>
-      <c r="F9">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>30000</v>
-      </c>
-      <c r="B10">
-        <v>26230</v>
-      </c>
-      <c r="C10">
-        <v>73425</v>
-      </c>
-      <c r="D10">
-        <v>426404</v>
-      </c>
-      <c r="E10">
-        <v>1309</v>
-      </c>
-      <c r="F10">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>40000</v>
-      </c>
-      <c r="B11">
-        <v>26222</v>
-      </c>
-      <c r="C11">
-        <v>73440</v>
-      </c>
-      <c r="D11">
-        <v>426552</v>
-      </c>
-      <c r="E11">
-        <v>1309</v>
-      </c>
-      <c r="F11">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12">
-        <v>50000</v>
-      </c>
-      <c r="B12">
-        <v>26222</v>
-      </c>
-      <c r="C12">
-        <v>73419</v>
-      </c>
-      <c r="D12">
-        <v>433947</v>
-      </c>
-      <c r="E12">
-        <v>1309</v>
-      </c>
-      <c r="F12">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14">
-        <v>10000</v>
-      </c>
-      <c r="B14">
-        <v>55082</v>
-      </c>
-      <c r="C14">
-        <v>235120</v>
-      </c>
-      <c r="D14">
-        <v>1206363</v>
-      </c>
-      <c r="E14">
-        <v>2052</v>
-      </c>
-      <c r="F14">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15">
-        <v>20000</v>
-      </c>
-      <c r="B15">
-        <v>58529</v>
-      </c>
-      <c r="C15">
-        <v>165645</v>
-      </c>
-      <c r="D15">
-        <v>988847</v>
-      </c>
-      <c r="E15">
-        <v>2039</v>
-      </c>
-      <c r="F15">
-        <v>1737</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16">
-        <v>30000</v>
-      </c>
-      <c r="B16">
-        <v>58402</v>
-      </c>
-      <c r="C16">
-        <v>165611</v>
-      </c>
-      <c r="D16">
-        <v>989597</v>
-      </c>
-      <c r="E16">
-        <v>2038</v>
-      </c>
-      <c r="F16">
-        <v>1739</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17">
-        <v>40000</v>
-      </c>
-      <c r="B17">
-        <v>58405</v>
-      </c>
-      <c r="C17">
-        <v>166598</v>
-      </c>
-      <c r="D17">
-        <v>988375</v>
-      </c>
-      <c r="E17">
-        <v>2033</v>
-      </c>
-      <c r="F17">
-        <v>1740</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18">
-        <v>50000</v>
-      </c>
-      <c r="B18">
-        <v>58012</v>
-      </c>
-      <c r="C18">
-        <v>164873</v>
-      </c>
-      <c r="D18">
-        <v>982734</v>
-      </c>
-      <c r="E18">
-        <v>2034</v>
-      </c>
-      <c r="F18">
-        <v>1733</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20">
-        <v>10000</v>
-      </c>
-      <c r="B20">
-        <v>96467</v>
-      </c>
-      <c r="C20">
-        <v>417463</v>
-      </c>
-      <c r="D20">
-        <v>2184987</v>
-      </c>
-      <c r="E20">
-        <v>2773</v>
-      </c>
-      <c r="F20">
-        <v>2390</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21">
-        <v>20000</v>
-      </c>
-      <c r="B21">
-        <v>103784</v>
-      </c>
-      <c r="C21">
-        <v>292015</v>
-      </c>
-      <c r="D21">
-        <v>1809232</v>
-      </c>
-      <c r="E21">
-        <v>2754</v>
-      </c>
-      <c r="F21">
-        <v>2384</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22">
-        <v>30000</v>
-      </c>
-      <c r="B22">
-        <v>103769</v>
-      </c>
-      <c r="C22">
-        <v>302288</v>
-      </c>
-      <c r="D22">
-        <v>1769642</v>
-      </c>
-      <c r="E22">
-        <v>2755</v>
-      </c>
-      <c r="F22">
-        <v>2383</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23">
-        <v>40000</v>
-      </c>
-      <c r="B23">
-        <v>103806</v>
-      </c>
-      <c r="C23">
-        <v>292756</v>
-      </c>
-      <c r="D23">
-        <v>1770005</v>
-      </c>
-      <c r="E23">
-        <v>2749</v>
-      </c>
-      <c r="F23">
-        <v>2384</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24">
-        <v>50000</v>
-      </c>
-      <c r="B24">
-        <v>103690</v>
-      </c>
-      <c r="C24">
-        <v>292612</v>
-      </c>
-      <c r="D24">
-        <v>1771423</v>
-      </c>
-      <c r="E24">
-        <v>2758</v>
-      </c>
-      <c r="F24">
-        <v>2383</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26">
-        <v>10000</v>
-      </c>
-      <c r="B26">
-        <v>149798</v>
-      </c>
-      <c r="C26">
-        <v>651318</v>
-      </c>
-      <c r="D26">
-        <v>3480731</v>
-      </c>
-      <c r="E26">
-        <v>3565</v>
-      </c>
-      <c r="F26">
-        <v>3058</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27">
-        <v>20000</v>
-      </c>
-      <c r="B27">
-        <v>164093</v>
-      </c>
-      <c r="C27">
-        <v>455949</v>
-      </c>
-      <c r="D27">
-        <v>2788247</v>
-      </c>
-      <c r="E27">
-        <v>3539</v>
-      </c>
-      <c r="F27">
-        <v>3046</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28">
-        <v>30000</v>
-      </c>
-      <c r="B28">
-        <v>162553</v>
-      </c>
-      <c r="C28">
-        <v>456150</v>
-      </c>
-      <c r="D28">
-        <v>2790159</v>
-      </c>
-      <c r="E28">
-        <v>3625</v>
-      </c>
-      <c r="F28">
-        <v>3042</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29">
-        <v>40000</v>
-      </c>
-      <c r="B29">
-        <v>162652</v>
-      </c>
-      <c r="C29">
-        <v>455919</v>
-      </c>
-      <c r="D29">
-        <v>2788969</v>
-      </c>
-      <c r="E29">
-        <v>3545</v>
-      </c>
-      <c r="F29">
-        <v>3041</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30">
-        <v>50000</v>
-      </c>
-      <c r="B30">
-        <v>162508</v>
-      </c>
-      <c r="C30">
-        <v>456627</v>
-      </c>
-      <c r="D30">
-        <v>2807876</v>
-      </c>
-      <c r="E30">
-        <v>3561</v>
-      </c>
-      <c r="F30">
-        <v>3052</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="1">
-        <v>10000</v>
-      </c>
-      <c r="B37" s="2">
+      <c r="B37" s="5">
         <v>7008</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="5">
         <v>25203</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="5">
         <v>115603</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="5">
         <v>709</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="6">
         <v>486</v>
       </c>
     </row>
@@ -1667,7 +1685,7 @@
         <v>1108</v>
       </c>
       <c r="H38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
@@ -1731,6 +1749,13 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="A26:A30"/>
+  </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
